--- a/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F83CA-E18A-485E-BC57-01C23B10CD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EFD9CD-ACC2-499C-9C97-8210A9EBD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شخارک-پتروشیمی‌ خارک‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-11 (3)</t>
-  </si>
-  <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-12-28 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-15 (10)</t>
-  </si>
-  <si>
-    <t>1401-04-23 (3)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-12-28 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-04-23</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-09 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,14 +596,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,13 +609,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,13 +620,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,13 +631,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,13 +640,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,13 +651,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,13 +662,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,13 +671,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,59 +692,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -819,526 +722,311 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>34106</v>
+        <v>70049</v>
       </c>
       <c r="E11" s="13">
-        <v>37782</v>
+        <v>112868</v>
       </c>
       <c r="F11" s="13">
-        <v>50685</v>
+        <v>85888</v>
       </c>
       <c r="G11" s="13">
-        <v>98451</v>
+        <v>74836</v>
       </c>
       <c r="H11" s="13">
-        <v>75541</v>
-      </c>
-      <c r="I11" s="13">
-        <v>93315</v>
-      </c>
-      <c r="J11" s="13">
-        <v>70049</v>
-      </c>
-      <c r="K11" s="13">
-        <v>112868</v>
-      </c>
-      <c r="L11" s="13">
-        <v>85888</v>
-      </c>
-      <c r="M11" s="13">
-        <v>74836</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>87097</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-16063</v>
+        <v>-39763</v>
       </c>
       <c r="E12" s="11">
-        <v>-11610</v>
+        <v>-90084</v>
       </c>
       <c r="F12" s="11">
-        <v>-19940</v>
+        <v>-43474</v>
       </c>
       <c r="G12" s="11">
-        <v>-32650</v>
+        <v>-55736</v>
       </c>
       <c r="H12" s="11">
-        <v>-33515</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-42606</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-39763</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-90084</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-43474</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-55736</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-59036</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>18043</v>
+        <v>30287</v>
       </c>
       <c r="E13" s="15">
-        <v>26172</v>
+        <v>22784</v>
       </c>
       <c r="F13" s="15">
-        <v>30745</v>
+        <v>42414</v>
       </c>
       <c r="G13" s="15">
-        <v>65801</v>
+        <v>19100</v>
       </c>
       <c r="H13" s="15">
-        <v>42026</v>
-      </c>
-      <c r="I13" s="15">
-        <v>50709</v>
-      </c>
-      <c r="J13" s="15">
-        <v>30287</v>
-      </c>
-      <c r="K13" s="15">
-        <v>22784</v>
-      </c>
-      <c r="L13" s="15">
-        <v>42414</v>
-      </c>
-      <c r="M13" s="15">
-        <v>19100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>28061</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-6213</v>
+        <v>-5142</v>
       </c>
       <c r="E14" s="11">
-        <v>-10411</v>
+        <v>-11619</v>
       </c>
       <c r="F14" s="11">
-        <v>-8125</v>
+        <v>-4001</v>
       </c>
       <c r="G14" s="11">
-        <v>-16770</v>
+        <v>-8299</v>
       </c>
       <c r="H14" s="11">
-        <v>-9723</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-10823</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-5142</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-11619</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-4001</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-8299</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-7725</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>5384</v>
+        <v>643</v>
       </c>
       <c r="E16" s="11">
-        <v>32869</v>
-      </c>
-      <c r="F16" s="11">
-        <v>7145</v>
+        <v>-2217</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="11">
-        <v>-5756</v>
+        <v>8294</v>
       </c>
       <c r="H16" s="11">
-        <v>502</v>
-      </c>
-      <c r="I16" s="11">
-        <v>7485</v>
-      </c>
-      <c r="J16" s="11">
-        <v>643</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-2217</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="11">
-        <v>8294</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>17215</v>
+        <v>25788</v>
       </c>
       <c r="E17" s="15">
-        <v>48630</v>
+        <v>8949</v>
       </c>
       <c r="F17" s="15">
-        <v>29765</v>
+        <v>38413</v>
       </c>
       <c r="G17" s="15">
-        <v>43276</v>
+        <v>19094</v>
       </c>
       <c r="H17" s="15">
-        <v>32805</v>
-      </c>
-      <c r="I17" s="15">
-        <v>47371</v>
-      </c>
-      <c r="J17" s="15">
-        <v>25788</v>
-      </c>
-      <c r="K17" s="15">
-        <v>8949</v>
-      </c>
-      <c r="L17" s="15">
-        <v>38413</v>
-      </c>
-      <c r="M17" s="15">
-        <v>19094</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>22371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>4301</v>
+        <v>1981</v>
       </c>
       <c r="E19" s="13">
-        <v>36</v>
+        <v>2140</v>
       </c>
       <c r="F19" s="13">
-        <v>1869</v>
+        <v>1228</v>
       </c>
       <c r="G19" s="13">
-        <v>1829</v>
+        <v>3524</v>
       </c>
       <c r="H19" s="13">
-        <v>851</v>
-      </c>
-      <c r="I19" s="13">
-        <v>2145</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1981</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2140</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1228</v>
-      </c>
-      <c r="M19" s="13">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>21516</v>
+        <v>27769</v>
       </c>
       <c r="E20" s="17">
-        <v>48665</v>
+        <v>11089</v>
       </c>
       <c r="F20" s="17">
-        <v>31634</v>
+        <v>39640</v>
       </c>
       <c r="G20" s="17">
-        <v>45105</v>
+        <v>22618</v>
       </c>
       <c r="H20" s="17">
-        <v>33655</v>
-      </c>
-      <c r="I20" s="17">
-        <v>49516</v>
-      </c>
-      <c r="J20" s="17">
-        <v>27769</v>
-      </c>
-      <c r="K20" s="17">
-        <v>11089</v>
-      </c>
-      <c r="L20" s="17">
-        <v>39640</v>
-      </c>
-      <c r="M20" s="17">
-        <v>22618</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>23204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>31</v>
+      <c r="D21" s="13">
+        <v>-202</v>
       </c>
       <c r="E21" s="13">
-        <v>-140</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-202</v>
-      </c>
-      <c r="K21" s="13">
         <v>-11563</v>
       </c>
-      <c r="L21" s="13">
+      <c r="F21" s="13">
         <v>-5257</v>
       </c>
-      <c r="M21" s="13">
-        <v>-6215</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="13">
+        <v>-6693</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-4760</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>21516</v>
+        <v>27567</v>
       </c>
       <c r="E22" s="17">
-        <v>48525</v>
+        <v>-474</v>
       </c>
       <c r="F22" s="17">
-        <v>31634</v>
+        <v>34383</v>
       </c>
       <c r="G22" s="17">
-        <v>45105</v>
+        <v>15926</v>
       </c>
       <c r="H22" s="17">
-        <v>33655</v>
-      </c>
-      <c r="I22" s="17">
-        <v>49516</v>
-      </c>
-      <c r="J22" s="17">
-        <v>27567</v>
-      </c>
-      <c r="K22" s="17">
-        <v>-474</v>
-      </c>
-      <c r="L22" s="17">
-        <v>34383</v>
-      </c>
-      <c r="M22" s="17">
-        <v>16404</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>18445</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>21516</v>
+        <v>27567</v>
       </c>
       <c r="E24" s="17">
-        <v>48525</v>
+        <v>-474</v>
       </c>
       <c r="F24" s="17">
-        <v>31634</v>
+        <v>34383</v>
       </c>
       <c r="G24" s="17">
-        <v>45105</v>
+        <v>15926</v>
       </c>
       <c r="H24" s="17">
-        <v>33655</v>
-      </c>
-      <c r="I24" s="17">
-        <v>49516</v>
-      </c>
-      <c r="J24" s="17">
-        <v>27567</v>
-      </c>
-      <c r="K24" s="17">
-        <v>-474</v>
-      </c>
-      <c r="L24" s="17">
-        <v>34383</v>
-      </c>
-      <c r="M24" s="17">
-        <v>16404</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>18445</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
@@ -1346,64 +1034,34 @@
       <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11">
-        <v>36844</v>
-      </c>
-      <c r="E26" s="11">
-        <v>27207</v>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F26" s="11">
-        <v>22078</v>
+        <v>20419</v>
       </c>
       <c r="G26" s="11">
-        <v>24566</v>
-      </c>
-      <c r="H26" s="11">
-        <v>25718</v>
-      </c>
-      <c r="I26" s="11">
-        <v>22988</v>
-      </c>
-      <c r="J26" s="11">
-        <v>21074</v>
-      </c>
-      <c r="K26" s="11">
-        <v>21784</v>
-      </c>
-      <c r="L26" s="11">
-        <v>20419</v>
-      </c>
-      <c r="M26" s="11">
         <v>19345</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H26" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1421,23 +1079,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1445,11 +1088,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EFD9CD-ACC2-499C-9C97-8210A9EBD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D273D518-DDAE-4302-9756-ECC52124F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1400-12-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-15 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-23 (3)</t>
+  </si>
+  <si>
+    <t>1401-09-09 (5)</t>
   </si>
   <si>
     <t>1401-10-29 (3)</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,311 +819,526 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>37782</v>
+      </c>
+      <c r="E11" s="13">
+        <v>50685</v>
+      </c>
+      <c r="F11" s="13">
+        <v>98451</v>
+      </c>
+      <c r="G11" s="13">
+        <v>75541</v>
+      </c>
+      <c r="H11" s="13">
+        <v>93315</v>
+      </c>
+      <c r="I11" s="13">
         <v>70049</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>112868</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>85888</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>74836</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>87097</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-11610</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-19940</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-32650</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-33515</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-42606</v>
+      </c>
+      <c r="I12" s="11">
         <v>-39763</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-90084</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-43474</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-55736</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-59036</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>26172</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30745</v>
+      </c>
+      <c r="F13" s="15">
+        <v>65801</v>
+      </c>
+      <c r="G13" s="15">
+        <v>42026</v>
+      </c>
+      <c r="H13" s="15">
+        <v>50709</v>
+      </c>
+      <c r="I13" s="15">
         <v>30287</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>22784</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>42414</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>19100</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>28061</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-10411</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-8125</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-16770</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-9723</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-10823</v>
+      </c>
+      <c r="I14" s="11">
         <v>-5142</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-11619</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-4001</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-8299</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-7725</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>32869</v>
+      </c>
+      <c r="E16" s="11">
+        <v>7145</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-5756</v>
+      </c>
+      <c r="G16" s="11">
+        <v>502</v>
+      </c>
+      <c r="H16" s="11">
+        <v>7485</v>
+      </c>
+      <c r="I16" s="11">
         <v>643</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-2217</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="11">
         <v>8294</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>2036</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>48630</v>
+      </c>
+      <c r="E17" s="15">
+        <v>29765</v>
+      </c>
+      <c r="F17" s="15">
+        <v>43276</v>
+      </c>
+      <c r="G17" s="15">
+        <v>32805</v>
+      </c>
+      <c r="H17" s="15">
+        <v>47371</v>
+      </c>
+      <c r="I17" s="15">
         <v>25788</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>8949</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>38413</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>19094</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>22371</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>36</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1869</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1829</v>
+      </c>
+      <c r="G19" s="13">
+        <v>851</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2145</v>
+      </c>
+      <c r="I19" s="13">
         <v>1981</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>2140</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>1228</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>3524</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>833</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>48665</v>
+      </c>
+      <c r="E20" s="17">
+        <v>31634</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45105</v>
+      </c>
+      <c r="G20" s="17">
+        <v>33655</v>
+      </c>
+      <c r="H20" s="17">
+        <v>49516</v>
+      </c>
+      <c r="I20" s="17">
         <v>27769</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>11089</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>39640</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>22618</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>23204</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-140</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="13">
         <v>-202</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-11563</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-5257</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-6693</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-4760</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>48525</v>
+      </c>
+      <c r="E22" s="17">
+        <v>31634</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45105</v>
+      </c>
+      <c r="G22" s="17">
+        <v>33655</v>
+      </c>
+      <c r="H22" s="17">
+        <v>49516</v>
+      </c>
+      <c r="I22" s="17">
         <v>27567</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>-474</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>34383</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>15926</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>18445</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>48525</v>
+      </c>
+      <c r="E24" s="17">
+        <v>31634</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45105</v>
+      </c>
+      <c r="G24" s="17">
+        <v>33655</v>
+      </c>
+      <c r="H24" s="17">
+        <v>49516</v>
+      </c>
+      <c r="I24" s="17">
         <v>27567</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>-474</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>34383</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>15926</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>18445</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>21</v>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
@@ -1034,34 +1346,64 @@
       <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>21</v>
+      <c r="D26" s="11">
+        <v>27207</v>
+      </c>
+      <c r="E26" s="11">
+        <v>22078</v>
       </c>
       <c r="F26" s="11">
+        <v>24566</v>
+      </c>
+      <c r="G26" s="11">
+        <v>25718</v>
+      </c>
+      <c r="H26" s="11">
+        <v>22988</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="11">
         <v>20419</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>19345</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1421,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D273D518-DDAE-4302-9756-ECC52124F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831A98B-2468-4D08-9768-CED32984FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-12-28 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-27 (9)</t>
   </si>
   <si>
     <t>1401-04-23</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-27 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>37782</v>
+        <v>50685</v>
       </c>
       <c r="E11" s="13">
-        <v>50685</v>
+        <v>98451</v>
       </c>
       <c r="F11" s="13">
-        <v>98451</v>
+        <v>75541</v>
       </c>
       <c r="G11" s="13">
-        <v>75541</v>
+        <v>93315</v>
       </c>
       <c r="H11" s="13">
-        <v>93315</v>
+        <v>70049</v>
       </c>
       <c r="I11" s="13">
-        <v>70049</v>
+        <v>112868</v>
       </c>
       <c r="J11" s="13">
-        <v>112868</v>
+        <v>85888</v>
       </c>
       <c r="K11" s="13">
-        <v>85888</v>
+        <v>74836</v>
       </c>
       <c r="L11" s="13">
-        <v>74836</v>
+        <v>87097</v>
       </c>
       <c r="M11" s="13">
-        <v>87097</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>72799</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-11610</v>
+        <v>-19940</v>
       </c>
       <c r="E12" s="11">
-        <v>-19940</v>
+        <v>-32650</v>
       </c>
       <c r="F12" s="11">
-        <v>-32650</v>
+        <v>-33515</v>
       </c>
       <c r="G12" s="11">
-        <v>-33515</v>
+        <v>-42606</v>
       </c>
       <c r="H12" s="11">
-        <v>-42606</v>
+        <v>-39763</v>
       </c>
       <c r="I12" s="11">
-        <v>-39763</v>
+        <v>-90084</v>
       </c>
       <c r="J12" s="11">
-        <v>-90084</v>
+        <v>-43474</v>
       </c>
       <c r="K12" s="11">
-        <v>-43474</v>
+        <v>-55736</v>
       </c>
       <c r="L12" s="11">
-        <v>-55736</v>
+        <v>-59036</v>
       </c>
       <c r="M12" s="11">
-        <v>-59036</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-36051</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>26172</v>
+        <v>30745</v>
       </c>
       <c r="E13" s="15">
-        <v>30745</v>
+        <v>65801</v>
       </c>
       <c r="F13" s="15">
-        <v>65801</v>
+        <v>42026</v>
       </c>
       <c r="G13" s="15">
-        <v>42026</v>
+        <v>50709</v>
       </c>
       <c r="H13" s="15">
-        <v>50709</v>
+        <v>30287</v>
       </c>
       <c r="I13" s="15">
-        <v>30287</v>
+        <v>22784</v>
       </c>
       <c r="J13" s="15">
-        <v>22784</v>
+        <v>42414</v>
       </c>
       <c r="K13" s="15">
-        <v>42414</v>
+        <v>19100</v>
       </c>
       <c r="L13" s="15">
-        <v>19100</v>
+        <v>28061</v>
       </c>
       <c r="M13" s="15">
-        <v>28061</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>36748</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-10411</v>
+        <v>-8125</v>
       </c>
       <c r="E14" s="11">
-        <v>-8125</v>
+        <v>-16770</v>
       </c>
       <c r="F14" s="11">
-        <v>-16770</v>
+        <v>-9723</v>
       </c>
       <c r="G14" s="11">
-        <v>-9723</v>
+        <v>-10823</v>
       </c>
       <c r="H14" s="11">
-        <v>-10823</v>
+        <v>-5142</v>
       </c>
       <c r="I14" s="11">
-        <v>-5142</v>
+        <v>-11619</v>
       </c>
       <c r="J14" s="11">
-        <v>-11619</v>
+        <v>-4001</v>
       </c>
       <c r="K14" s="11">
-        <v>-4001</v>
+        <v>-8299</v>
       </c>
       <c r="L14" s="11">
-        <v>-8299</v>
+        <v>-7725</v>
       </c>
       <c r="M14" s="11">
-        <v>-7725</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-9416</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,79 +1006,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>32869</v>
+        <v>7145</v>
       </c>
       <c r="E16" s="11">
-        <v>7145</v>
+        <v>-5756</v>
       </c>
       <c r="F16" s="11">
-        <v>-5756</v>
+        <v>502</v>
       </c>
       <c r="G16" s="11">
-        <v>502</v>
+        <v>7485</v>
       </c>
       <c r="H16" s="11">
-        <v>7485</v>
+        <v>643</v>
       </c>
       <c r="I16" s="11">
-        <v>643</v>
-      </c>
-      <c r="J16" s="11">
         <v>-2217</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>31</v>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="11">
+        <v>8294</v>
       </c>
       <c r="L16" s="11">
-        <v>8294</v>
+        <v>2036</v>
       </c>
       <c r="M16" s="11">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15544</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>48630</v>
+        <v>29765</v>
       </c>
       <c r="E17" s="15">
-        <v>29765</v>
+        <v>43276</v>
       </c>
       <c r="F17" s="15">
-        <v>43276</v>
+        <v>32805</v>
       </c>
       <c r="G17" s="15">
-        <v>32805</v>
+        <v>47371</v>
       </c>
       <c r="H17" s="15">
-        <v>47371</v>
+        <v>25788</v>
       </c>
       <c r="I17" s="15">
-        <v>25788</v>
+        <v>8949</v>
       </c>
       <c r="J17" s="15">
-        <v>8949</v>
+        <v>38413</v>
       </c>
       <c r="K17" s="15">
-        <v>38413</v>
+        <v>19094</v>
       </c>
       <c r="L17" s="15">
-        <v>19094</v>
+        <v>22371</v>
       </c>
       <c r="M17" s="15">
-        <v>22371</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,85 +1114,85 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>36</v>
+        <v>1869</v>
       </c>
       <c r="E19" s="13">
-        <v>1869</v>
+        <v>1829</v>
       </c>
       <c r="F19" s="13">
-        <v>1829</v>
+        <v>851</v>
       </c>
       <c r="G19" s="13">
-        <v>851</v>
+        <v>2145</v>
       </c>
       <c r="H19" s="13">
-        <v>2145</v>
+        <v>1981</v>
       </c>
       <c r="I19" s="13">
-        <v>1981</v>
+        <v>2140</v>
       </c>
       <c r="J19" s="13">
-        <v>2140</v>
+        <v>1228</v>
       </c>
       <c r="K19" s="13">
-        <v>1228</v>
+        <v>3524</v>
       </c>
       <c r="L19" s="13">
-        <v>3524</v>
+        <v>833</v>
       </c>
       <c r="M19" s="13">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>48665</v>
+        <v>31634</v>
       </c>
       <c r="E20" s="17">
-        <v>31634</v>
+        <v>45105</v>
       </c>
       <c r="F20" s="17">
-        <v>45105</v>
+        <v>33655</v>
       </c>
       <c r="G20" s="17">
-        <v>33655</v>
+        <v>49516</v>
       </c>
       <c r="H20" s="17">
-        <v>49516</v>
+        <v>27769</v>
       </c>
       <c r="I20" s="17">
-        <v>27769</v>
+        <v>11089</v>
       </c>
       <c r="J20" s="17">
-        <v>11089</v>
+        <v>39640</v>
       </c>
       <c r="K20" s="17">
-        <v>39640</v>
+        <v>22618</v>
       </c>
       <c r="L20" s="17">
-        <v>22618</v>
+        <v>23204</v>
       </c>
       <c r="M20" s="17">
-        <v>23204</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13">
-        <v>-140</v>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>31</v>
@@ -1202,62 +1203,62 @@
       <c r="G21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
+      <c r="H21" s="13">
+        <v>-202</v>
       </c>
       <c r="I21" s="13">
-        <v>-202</v>
+        <v>-11563</v>
       </c>
       <c r="J21" s="13">
-        <v>-11563</v>
+        <v>-5257</v>
       </c>
       <c r="K21" s="13">
-        <v>-5257</v>
+        <v>-6693</v>
       </c>
       <c r="L21" s="13">
-        <v>-6693</v>
+        <v>-4760</v>
       </c>
       <c r="M21" s="13">
-        <v>-4760</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>48525</v>
+        <v>31634</v>
       </c>
       <c r="E22" s="17">
-        <v>31634</v>
+        <v>45105</v>
       </c>
       <c r="F22" s="17">
-        <v>45105</v>
+        <v>33655</v>
       </c>
       <c r="G22" s="17">
-        <v>33655</v>
+        <v>49516</v>
       </c>
       <c r="H22" s="17">
-        <v>49516</v>
+        <v>27567</v>
       </c>
       <c r="I22" s="17">
-        <v>27567</v>
+        <v>-474</v>
       </c>
       <c r="J22" s="17">
-        <v>-474</v>
+        <v>34383</v>
       </c>
       <c r="K22" s="17">
-        <v>34383</v>
+        <v>15926</v>
       </c>
       <c r="L22" s="17">
-        <v>15926</v>
+        <v>18445</v>
       </c>
       <c r="M22" s="17">
-        <v>18445</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>37451</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>48525</v>
+        <v>31634</v>
       </c>
       <c r="E24" s="17">
-        <v>31634</v>
+        <v>45105</v>
       </c>
       <c r="F24" s="17">
-        <v>45105</v>
+        <v>33655</v>
       </c>
       <c r="G24" s="17">
-        <v>33655</v>
+        <v>49516</v>
       </c>
       <c r="H24" s="17">
-        <v>49516</v>
+        <v>27567</v>
       </c>
       <c r="I24" s="17">
-        <v>27567</v>
+        <v>-474</v>
       </c>
       <c r="J24" s="17">
-        <v>-474</v>
+        <v>34383</v>
       </c>
       <c r="K24" s="17">
-        <v>34383</v>
+        <v>15926</v>
       </c>
       <c r="L24" s="17">
-        <v>15926</v>
+        <v>18445</v>
       </c>
       <c r="M24" s="17">
-        <v>18445</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>37451</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1346,62 +1347,62 @@
       <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>31</v>
+      <c r="H25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
       </c>
       <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>27207</v>
+        <v>22078</v>
       </c>
       <c r="E26" s="11">
-        <v>22078</v>
+        <v>24566</v>
       </c>
       <c r="F26" s="11">
-        <v>24566</v>
+        <v>25718</v>
       </c>
       <c r="G26" s="11">
-        <v>25718</v>
-      </c>
-      <c r="H26" s="11">
         <v>22988</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>31</v>
+      <c r="H26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="11">
+        <v>21784</v>
+      </c>
+      <c r="J26" s="11">
+        <v>20419</v>
       </c>
       <c r="K26" s="11">
-        <v>20419</v>
-      </c>
-      <c r="L26" s="11">
         <v>19345</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="11">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
